--- a/Outros/Pinagem_Gardbot.xlsx
+++ b/Outros/Pinagem_Gardbot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Gardbot Hardware 1.0</t>
   </si>
@@ -49,13 +49,28 @@
   </si>
   <si>
     <t>Arduino</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +92,28 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,10 +132,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,14 +149,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,70 +513,120 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Outros/Pinagem_Gardbot.xlsx
+++ b/Outros/Pinagem_Gardbot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Gardbot Hardware 1.0</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>DHT11 - temp hum</t>
+  </si>
+  <si>
+    <t>DATA</t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,8 +149,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,14 +180,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,31 +524,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20">
+    <row r="1" spans="1:11" ht="20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -541,8 +572,20 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,8 +598,20 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,8 +624,20 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,8 +650,16 @@
       <c r="E7" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,8 +672,12 @@
       <c r="E8" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -611,19 +690,29 @@
       <c r="E9" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="7">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Outros/Pinagem_Gardbot.xlsx
+++ b/Outros/Pinagem_Gardbot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Gardbot Hardware 1.0</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>Light Sensor</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Soil Sensor</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -141,7 +156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -153,8 +168,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,18 +202,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,32 +560,43 @@
     <col min="3" max="3" width="3.33203125" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
+    <row r="1" spans="1:17" ht="20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,8 +621,20 @@
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,8 +659,20 @@
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,8 +697,20 @@
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,8 +731,20 @@
       <c r="K7" s="5">
         <v>22</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,8 +761,12 @@
       <c r="H8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,8 +783,12 @@
       <c r="H9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17">
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
@@ -706,13 +799,19 @@
       <c r="H10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
